--- a/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
+++ b/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\forkHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB0AA6C-225A-4264-9B7A-8FF18504C637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39E710-8208-43E2-BDC8-5C9DA49E65AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
 Instruction-Fetch Fence</t>
   </si>
   <si>
-    <t>FENCE</t>
-  </si>
-  <si>
     <t>A FENCE.I instruction ensures that a subsequent instruction fetch on a RISC-V hart will see any previous data stores already visible to the same RISC-V hart.</t>
   </si>
   <si>
@@ -184,13 +181,16 @@
   </si>
   <si>
     <t xml:space="preserve"> --------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------END ----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>FENCE.I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -232,6 +232,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -261,12 +266,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -281,9 +280,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -295,9 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -315,6 +308,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,302 +705,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="51.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="69.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="1021" width="17" style="3" customWidth="1"/>
-    <col min="1022" max="1023" width="9.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="1021" width="17" style="1" customWidth="1"/>
+    <col min="1022" max="1023" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="28.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="28.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="55.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="41.4">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="41.4">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="B3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="J3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="41.4">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="41.4">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="41.4">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="41.4">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="41.4">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="41.4">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1">
+      <c r="A9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="41.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="41.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="41.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="41.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="41.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="13" customFormat="1">
-      <c r="A9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1004,7 +1009,7 @@
     <mergeCell ref="B3:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -1052,79 +1057,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
+++ b/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\forkHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39E710-8208-43E2-BDC8-5C9DA49E65AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF7E6EC-62CB-4EB9-86DF-521BC2BE3AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -126,18 +126,12 @@
     <t>Assertion</t>
   </si>
   <si>
-    <t>Full Proof</t>
-  </si>
-  <si>
     <t>Properties</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Coverage Details</t>
-  </si>
-  <si>
     <t>Self Checking Test</t>
   </si>
   <si>
@@ -147,18 +141,12 @@
     <t>Cover Statement</t>
   </si>
   <si>
-    <t>Partial Proof</t>
-  </si>
-  <si>
     <t>Check against ISS</t>
   </si>
   <si>
     <t>Assumption</t>
   </si>
   <si>
-    <t>Witness</t>
-  </si>
-  <si>
     <t>Check against RM</t>
   </si>
   <si>
@@ -168,12 +156,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>RV32Z.FENCEI_a</t>
-  </si>
-  <si>
-    <t>RV32Z.CSR_a</t>
-  </si>
-  <si>
     <t>Exaustive proof of the instruction being decoded, executed and updating architectural states as specified in the unprivileged ISA standard under all possible circumstances</t>
   </si>
   <si>
@@ -184,6 +166,24 @@
   </si>
   <si>
     <t>FENCE.I</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.FENCE_I_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.CSR_*a</t>
+  </si>
+  <si>
+    <t>Full Proof w/ Reachable Witness</t>
+  </si>
+  <si>
+    <t>Partial Proof w/ Reachable Witness</t>
+  </si>
+  <si>
+    <t>Reachable Witness</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -309,6 +309,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -317,9 +320,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI9"/>
+  <dimension ref="A1:AMH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -717,16 +717,15 @@
     <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="69.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="1021" width="17" style="1" customWidth="1"/>
-    <col min="1022" max="1023" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="1020" width="17" style="1" customWidth="1"/>
+    <col min="1021" max="1022" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="28.2">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="28.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,25 +742,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="41.4">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="55.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -769,16 +765,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>44</v>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>26</v>
@@ -787,20 +783,17 @@
         <v>27</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="41.4">
-      <c r="A3" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="41.4">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -810,10 +803,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>26</v>
@@ -822,18 +815,15 @@
         <v>27</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="41.4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="41.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
@@ -841,10 +831,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>26</v>
@@ -853,18 +843,15 @@
         <v>27</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="41.4">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="41.4">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
@@ -872,10 +859,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>26</v>
@@ -884,18 +871,15 @@
         <v>27</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="41.4">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="41.4">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
@@ -903,10 +887,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>26</v>
@@ -915,18 +899,15 @@
         <v>27</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="41.4">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="41.4">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
@@ -934,10 +915,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>26</v>
@@ -946,18 +927,15 @@
         <v>27</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="41.4">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="41.4">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
@@ -965,10 +943,10 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
@@ -977,34 +955,30 @@
         <v>27</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="10" customFormat="1">
-      <c r="A9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1">
+      <c r="A9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A9:J9"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
   </mergeCells>
@@ -1013,12 +987,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0029548E-4698-4EBC-9677-5217AB321D9B}">
-          <x14:formula1>
-            <xm:f>DONOTDELETE!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F8</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7562AD9D-A2A0-412E-A857-951F4596231A}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$3:$C$9</xm:f>
@@ -1037,6 +1005,12 @@
           </x14:formula1>
           <xm:sqref>I2:I8</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0029548E-4698-4EBC-9677-5217AB321D9B}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$A$3:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F8</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1048,24 +1022,24 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
@@ -1077,13 +1051,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1091,13 +1065,13 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1105,21 +1079,21 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1129,7 +1103,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
